--- a/B站视频运营SOP.xlsx
+++ b/B站视频运营SOP.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianl\Desktop\翻译修改\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\djDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A945CA71-A494-4BF0-B636-515683D30F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{287B3F29-9584-4896-9FFA-1F4B14F34ED2}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="B站号" sheetId="2" r:id="rId1"/>
     <sheet name="1.找素材" sheetId="1" r:id="rId2"/>
     <sheet name="辅助工具" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,11 +380,19 @@
     <t>155：JIAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>百度网盘加速播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videojs.getPlayers("video-player").html5player.tech_.setPlaybackRate(1.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -818,21 +825,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C068D3D3-AD45-4147-8DF1-49C1E8F77067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -840,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -851,7 +858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -862,7 +869,7 @@
         <v>15580657165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -873,7 +880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -884,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -895,7 +902,7 @@
         <v>8637</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -906,7 +913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -922,19 +929,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0966E6-CB83-411B-A73D-471CC3F39290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="58.54296875" customWidth="1"/>
+    <col min="3" max="3" width="58.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -942,7 +949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -950,7 +957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -958,12 +965,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -971,17 +978,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -989,7 +996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>81</v>
       </c>
@@ -997,7 +1004,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>83</v>
       </c>
@@ -1009,22 +1016,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48820CE-5DC5-4FC3-AC82-81F466E57492}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1058,7 +1065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>63</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>42</v>
@@ -1090,7 +1097,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>64</v>
       </c>
@@ -1105,7 +1112,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -1118,7 +1125,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>49</v>
@@ -1129,7 +1136,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="140" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>51</v>
@@ -1140,7 +1147,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>68</v>
       </c>
@@ -1155,7 +1162,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>56</v>
@@ -1166,7 +1173,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>58</v>
@@ -1180,7 +1187,7 @@
       <c r="E11" s="5"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1192,7 +1199,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -1207,7 +1214,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>76</v>
       </c>
@@ -1220,7 +1227,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
         <v>79</v>
@@ -1229,33 +1236,33 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>80</v>
       </c>
@@ -1264,29 +1271,37 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1297,7 +1312,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{16201F72-B7C3-490A-9B01-BEAD42D39FBB}"/>
+    <hyperlink ref="A20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
